--- a/pages/api/test/property.xlsx
+++ b/pages/api/test/property.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="70" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
   <si>
     <t>id</t>
   </si>
@@ -25,185 +25,201 @@
     <t>state</t>
   </si>
   <si>
-    <t>city</t>
-  </si>
-  <si>
-    <t>postcode</t>
+    <t>images</t>
+  </si>
+  <si>
+    <t>price (AUD)</t>
+  </si>
+  <si>
+    <t>rent</t>
+  </si>
+  <si>
+    <t>bond</t>
+  </si>
+  <si>
+    <t>createdAt</t>
   </si>
   <si>
     <t>Riverside Villas</t>
   </si>
   <si>
-    <t>123 Main St</t>
+    <t>123 Main St, NSW 1122</t>
   </si>
   <si>
     <t>New South Wales</t>
   </si>
   <si>
-    <t>Sydney</t>
+    <r>
+      <rPr>
+        <color rgb="FF1155CC"/>
+        <u/>
+      </rPr>
+      <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h1250</t>
+    </r>
+    <r>
+      <rPr/>
+      <t>0</t>
+    </r>
   </si>
   <si>
     <t>Oceanview Apartments</t>
   </si>
   <si>
-    <t>456 Elm St</t>
+    <t>456 Elm St, VIC 1111</t>
   </si>
   <si>
     <t>Victoria</t>
   </si>
   <si>
-    <t>Melbourne</t>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12501</t>
   </si>
   <si>
     <t>Pine Ridge Estate</t>
   </si>
   <si>
-    <t>789 Pine St</t>
+    <t>789 Pine St, QLD 1245</t>
   </si>
   <si>
     <t>Queensland</t>
   </si>
   <si>
-    <t>Brisbane</t>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12502</t>
   </si>
   <si>
     <t>Maple Grove</t>
   </si>
   <si>
-    <t>101 Maple St</t>
+    <t>101 Maple St, SA 1444</t>
   </si>
   <si>
     <t>South Australia</t>
   </si>
   <si>
-    <t>Adelaide</t>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12503</t>
   </si>
   <si>
     <t>Oakwood Residences</t>
   </si>
   <si>
-    <t>202 Oak St</t>
+    <t>202 Oak St, WA 4125</t>
   </si>
   <si>
     <t>Western Australia</t>
   </si>
   <si>
-    <t>Perth</t>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12504</t>
   </si>
   <si>
     <t>Birchwood Cottages</t>
   </si>
   <si>
-    <t>303 Birch St</t>
+    <t>303 Birch St, TAS 4245</t>
   </si>
   <si>
     <t>Tasmania</t>
   </si>
   <si>
-    <t>Hobart</t>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12505</t>
   </si>
   <si>
     <t>Cedar Heights</t>
   </si>
   <si>
-    <t>404 Cedar St</t>
-  </si>
-  <si>
-    <t>Australian Capital Territory</t>
-  </si>
-  <si>
-    <t>Canberra</t>
+    <t>404 Cedar St, NSW 4444</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12506</t>
   </si>
   <si>
     <t>Willow Springs</t>
   </si>
   <si>
-    <t>505 Willow St</t>
-  </si>
-  <si>
-    <t>Northern Territory</t>
-  </si>
-  <si>
-    <t>Darwin</t>
+    <t>505 Willow St,  NSW 4251</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12507</t>
   </si>
   <si>
     <t>Spruce Point</t>
   </si>
   <si>
-    <t>606 Spruce St</t>
-  </si>
-  <si>
-    <t>Newcastle</t>
+    <t>606 Spruce St, NSW 1023</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12508</t>
   </si>
   <si>
     <t>Fir Tree Meadows</t>
   </si>
   <si>
-    <t>707 Fir St</t>
-  </si>
-  <si>
-    <t>Geelong</t>
+    <t>808 Chestnut St, QLD 1245</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12509</t>
   </si>
   <si>
     <t>Chestnut Park</t>
   </si>
   <si>
-    <t>808 Chestnut St</t>
-  </si>
-  <si>
-    <t>Gold Coast</t>
+    <t>909 Redwood St, SA 1444</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12510</t>
   </si>
   <si>
     <t>Redwood Retreat</t>
   </si>
   <si>
-    <t>909 Redwood St</t>
-  </si>
-  <si>
-    <t>Glenelg</t>
+    <t>1010 Poplar St, WA 4125</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12511</t>
   </si>
   <si>
     <t>Poplar Grove</t>
   </si>
   <si>
-    <t>1010 Poplar St</t>
-  </si>
-  <si>
-    <t>Fremantle</t>
+    <t>1111 Sycamore St, SA 1444</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12512</t>
   </si>
   <si>
     <t>Sycamore Gardens</t>
   </si>
   <si>
-    <t>1111 Sycamore St</t>
-  </si>
-  <si>
-    <t>Launceston</t>
+    <t>1212 Dogwood St, SA 1444</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12513</t>
   </si>
   <si>
     <t>Dogwood Court</t>
   </si>
   <si>
-    <t>1212 Dogwood St</t>
-  </si>
-  <si>
-    <t>Wollongong</t>
+    <t>1313 Juniper St, VIC 1111</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12514</t>
   </si>
   <si>
     <t>Juniper Hills</t>
   </si>
   <si>
-    <t>1313 Juniper St</t>
-  </si>
-  <si>
-    <t>Ballarat</t>
+    <t>1314 Juniper St, VIC 1111</t>
+  </si>
+  <si>
+    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12515</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="2">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
+  </numFmts>
+  <fonts count="4">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
@@ -214,6 +230,14 @@
       <color theme="1"/>
       <name val="Arial"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <color theme="1"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <u/>
+      <color rgb="FF0000FF"/>
     </font>
   </fonts>
   <fills count="2">
@@ -230,7 +254,7 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="6">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
     </xf>
@@ -239,6 +263,15 @@
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment vertical="bottom"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="3" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="2" numFmtId="164" xfId="0" applyAlignment="1" applyFont="1" applyNumberFormat="1">
+      <alignment readingOrder="0" vertical="bottom"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -456,9 +489,10 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="12.63" defaultRowHeight="15.75"/>
   <cols>
-    <col customWidth="1" min="1" max="2" width="23.63"/>
-    <col customWidth="1" min="3" max="4" width="30.38"/>
-    <col customWidth="1" min="5" max="5" width="36.5"/>
+    <col customWidth="1" min="1" max="1" width="20.63"/>
+    <col customWidth="1" min="2" max="2" width="17.88"/>
+    <col customWidth="1" min="3" max="3" width="34.0"/>
+    <col customWidth="1" min="4" max="5" width="56.0"/>
     <col customWidth="1" min="6" max="6" width="19.63"/>
   </cols>
   <sheetData>
@@ -481,25 +515,43 @@
       <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="3" t="s">
+        <v>8</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="2">
         <v>1.0</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="C2" s="2" t="s">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="D2" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E2" s="2" t="s">
-        <v>9</v>
+        <v>11</v>
+      </c>
+      <c r="E2" s="4" t="s">
+        <v>12</v>
       </c>
       <c r="F2" s="2">
-        <v>2000.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G2" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I2" s="5">
+        <v>43906.0</v>
       </c>
     </row>
     <row r="3">
@@ -507,19 +559,28 @@
         <v>2.0</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="C3" s="2" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
       <c r="D3" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E3" s="2" t="s">
-        <v>13</v>
+        <v>15</v>
+      </c>
+      <c r="E3" s="4" t="s">
+        <v>16</v>
       </c>
       <c r="F3" s="2">
-        <v>3000.0</v>
+        <v>11000.0</v>
+      </c>
+      <c r="G3" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I3" s="5">
+        <v>43907.0</v>
       </c>
     </row>
     <row r="4">
@@ -527,19 +588,28 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="C4" s="2" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="D4" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>17</v>
+        <v>19</v>
+      </c>
+      <c r="E4" s="4" t="s">
+        <v>20</v>
       </c>
       <c r="F4" s="2">
-        <v>4000.0</v>
+        <v>15000.0</v>
+      </c>
+      <c r="G4" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I4" s="5">
+        <v>43908.0</v>
       </c>
     </row>
     <row r="5">
@@ -547,19 +617,28 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="C5" s="2" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="D5" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="E5" s="4" t="s">
+        <v>24</v>
       </c>
       <c r="F5" s="2">
-        <v>5000.0</v>
+        <v>11000.0</v>
+      </c>
+      <c r="G5" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I5" s="5">
+        <v>43909.0</v>
       </c>
     </row>
     <row r="6">
@@ -567,19 +646,28 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>23</v>
+        <v>26</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>25</v>
+        <v>27</v>
+      </c>
+      <c r="E6" s="4" t="s">
+        <v>28</v>
       </c>
       <c r="F6" s="2">
-        <v>6000.0</v>
+        <v>15246.0</v>
+      </c>
+      <c r="G6" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I6" s="5">
+        <v>43910.0</v>
       </c>
     </row>
     <row r="7">
@@ -587,19 +675,28 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>26</v>
+        <v>29</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>27</v>
+        <v>30</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>29</v>
+        <v>31</v>
+      </c>
+      <c r="E7" s="4" t="s">
+        <v>32</v>
       </c>
       <c r="F7" s="2">
-        <v>7000.0</v>
+        <v>41222.0</v>
+      </c>
+      <c r="G7" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I7" s="5">
+        <v>43911.0</v>
       </c>
     </row>
     <row r="8">
@@ -607,19 +704,28 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>31</v>
+        <v>34</v>
       </c>
       <c r="D8" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>33</v>
+        <v>11</v>
+      </c>
+      <c r="E8" s="4" t="s">
+        <v>35</v>
       </c>
       <c r="F8" s="2">
-        <v>2600.0</v>
+        <v>41222.0</v>
+      </c>
+      <c r="G8" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I8" s="5">
+        <v>43912.0</v>
       </c>
     </row>
     <row r="9">
@@ -627,19 +733,28 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>34</v>
+        <v>36</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="D9" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>37</v>
+        <v>11</v>
+      </c>
+      <c r="E9" s="4" t="s">
+        <v>38</v>
       </c>
       <c r="F9" s="2">
-        <v>800.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G9" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H9" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I9" s="5">
+        <v>43913.0</v>
       </c>
     </row>
     <row r="10">
@@ -647,19 +762,28 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E10" s="2" t="s">
-        <v>40</v>
+        <v>31</v>
+      </c>
+      <c r="E10" s="4" t="s">
+        <v>41</v>
       </c>
       <c r="F10" s="2">
-        <v>2300.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G10" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H10" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I10" s="5">
+        <v>43914.0</v>
       </c>
     </row>
     <row r="11">
@@ -667,19 +791,28 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="2" t="s">
-        <v>43</v>
+        <v>19</v>
+      </c>
+      <c r="E11" s="4" t="s">
+        <v>44</v>
       </c>
       <c r="F11" s="2">
-        <v>3220.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G11" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H11" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I11" s="5">
+        <v>43915.0</v>
       </c>
     </row>
     <row r="12">
@@ -687,19 +820,28 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>16</v>
-      </c>
-      <c r="E12" s="2" t="s">
-        <v>46</v>
+        <v>23</v>
+      </c>
+      <c r="E12" s="4" t="s">
+        <v>47</v>
       </c>
       <c r="F12" s="2">
-        <v>4217.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G12" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H12" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I12" s="5">
+        <v>43916.0</v>
       </c>
     </row>
     <row r="13">
@@ -707,19 +849,28 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>20</v>
-      </c>
-      <c r="E13" s="2" t="s">
-        <v>49</v>
+        <v>27</v>
+      </c>
+      <c r="E13" s="4" t="s">
+        <v>50</v>
       </c>
       <c r="F13" s="2">
-        <v>5045.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G13" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H13" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I13" s="5">
+        <v>43917.0</v>
       </c>
     </row>
     <row r="14">
@@ -727,19 +878,28 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="E14" s="2" t="s">
-        <v>52</v>
+        <v>23</v>
+      </c>
+      <c r="E14" s="4" t="s">
+        <v>53</v>
       </c>
       <c r="F14" s="2">
-        <v>6160.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G14" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H14" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I14" s="5">
+        <v>43918.0</v>
       </c>
     </row>
     <row r="15">
@@ -747,19 +907,28 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="E15" s="2" t="s">
-        <v>55</v>
+        <v>23</v>
+      </c>
+      <c r="E15" s="4" t="s">
+        <v>56</v>
       </c>
       <c r="F15" s="2">
-        <v>7250.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G15" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H15" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I15" s="5">
+        <v>43919.0</v>
       </c>
     </row>
     <row r="16">
@@ -767,19 +936,28 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="D16" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="E16" s="2" t="s">
-        <v>58</v>
+        <v>15</v>
+      </c>
+      <c r="E16" s="4" t="s">
+        <v>59</v>
       </c>
       <c r="F16" s="2">
-        <v>2500.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G16" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H16" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I16" s="5">
+        <v>43920.0</v>
       </c>
     </row>
     <row r="17">
@@ -787,22 +965,49 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E17" s="2" t="s">
-        <v>61</v>
+        <v>15</v>
+      </c>
+      <c r="E17" s="4" t="s">
+        <v>62</v>
       </c>
       <c r="F17" s="2">
-        <v>3350.0</v>
+        <v>12000.0</v>
+      </c>
+      <c r="G17" s="2">
+        <v>120.0</v>
+      </c>
+      <c r="H17" s="2">
+        <v>1000.0</v>
+      </c>
+      <c r="I17" s="5">
+        <v>43921.0</v>
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId1"/>
+  <hyperlinks>
+    <hyperlink r:id="rId1" ref="E2"/>
+    <hyperlink r:id="rId2" ref="E3"/>
+    <hyperlink r:id="rId3" ref="E4"/>
+    <hyperlink r:id="rId4" ref="E5"/>
+    <hyperlink r:id="rId5" ref="E6"/>
+    <hyperlink r:id="rId6" ref="E7"/>
+    <hyperlink r:id="rId7" ref="E8"/>
+    <hyperlink r:id="rId8" ref="E9"/>
+    <hyperlink r:id="rId9" ref="E10"/>
+    <hyperlink r:id="rId10" ref="E11"/>
+    <hyperlink r:id="rId11" ref="E12"/>
+    <hyperlink r:id="rId12" ref="E13"/>
+    <hyperlink r:id="rId13" ref="E14"/>
+    <hyperlink r:id="rId14" ref="E15"/>
+    <hyperlink r:id="rId15" ref="E16"/>
+    <hyperlink r:id="rId16" ref="E17"/>
+  </hyperlinks>
+  <drawing r:id="rId17"/>
 </worksheet>
 </file>
--- a/pages/api/test/property.xlsx
+++ b/pages/api/test/property.xlsx
@@ -46,7 +46,7 @@
     <t>123 Main St, NSW 1122</t>
   </si>
   <si>
-    <t>New South Wales</t>
+    <t>NSW</t>
   </si>
   <si>
     <r>
@@ -68,7 +68,7 @@
     <t>456 Elm St, VIC 1111</t>
   </si>
   <si>
-    <t>Victoria</t>
+    <t>VIC</t>
   </si>
   <si>
     <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12501</t>
@@ -80,7 +80,7 @@
     <t>789 Pine St, QLD 1245</t>
   </si>
   <si>
-    <t>Queensland</t>
+    <t>QLD</t>
   </si>
   <si>
     <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12502</t>
@@ -92,7 +92,7 @@
     <t>101 Maple St, SA 1444</t>
   </si>
   <si>
-    <t>South Australia</t>
+    <t>SA</t>
   </si>
   <si>
     <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12503</t>
@@ -104,7 +104,7 @@
     <t>202 Oak St, WA 4125</t>
   </si>
   <si>
-    <t>Western Australia</t>
+    <t>WA</t>
   </si>
   <si>
     <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12504</t>
@@ -116,7 +116,7 @@
     <t>303 Birch St, TAS 4245</t>
   </si>
   <si>
-    <t>Tasmania</t>
+    <t>TAS</t>
   </si>
   <si>
     <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12505</t>
@@ -574,7 +574,7 @@
         <v>11000.0</v>
       </c>
       <c r="G3" s="2">
-        <v>120.0</v>
+        <v>200.0</v>
       </c>
       <c r="H3" s="2">
         <v>1000.0</v>
@@ -603,7 +603,7 @@
         <v>15000.0</v>
       </c>
       <c r="G4" s="2">
-        <v>120.0</v>
+        <v>400.0</v>
       </c>
       <c r="H4" s="2">
         <v>1000.0</v>
@@ -632,7 +632,7 @@
         <v>11000.0</v>
       </c>
       <c r="G5" s="2">
-        <v>120.0</v>
+        <v>600.0</v>
       </c>
       <c r="H5" s="2">
         <v>1000.0</v>
@@ -768,7 +768,7 @@
         <v>40</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>31</v>
+        <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
         <v>41</v>

--- a/pages/api/test/property.xlsx
+++ b/pages/api/test/property.xlsx
@@ -25,7 +25,7 @@
     <t>state</t>
   </si>
   <si>
-    <t>images</t>
+    <t>image</t>
   </si>
   <si>
     <t>price (AUD)</t>

--- a/pages/api/test/property.xlsx
+++ b/pages/api/test/property.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="48">
   <si>
     <t>id</t>
   </si>
@@ -49,17 +49,7 @@
     <t>NSW</t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <color rgb="FF1155CC"/>
-        <u/>
-      </rPr>
-      <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h1250</t>
-    </r>
-    <r>
-      <rPr/>
-      <t>0</t>
-    </r>
+    <t>https://encrypted-tbn0.gstatic.com/images?q=tbn:ANd9GcTTDg-Su0SiwXNP88Oz1j2GV_bU8Hm9gpeB6Q&amp;s</t>
   </si>
   <si>
     <t>Oceanview Apartments</t>
@@ -71,9 +61,6 @@
     <t>VIC</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12501</t>
-  </si>
-  <si>
     <t>Pine Ridge Estate</t>
   </si>
   <si>
@@ -83,9 +70,6 @@
     <t>QLD</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12502</t>
-  </si>
-  <si>
     <t>Maple Grove</t>
   </si>
   <si>
@@ -95,9 +79,6 @@
     <t>SA</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12503</t>
-  </si>
-  <si>
     <t>Oakwood Residences</t>
   </si>
   <si>
@@ -107,9 +88,6 @@
     <t>WA</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12504</t>
-  </si>
-  <si>
     <t>Birchwood Cottages</t>
   </si>
   <si>
@@ -119,97 +97,64 @@
     <t>TAS</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12505</t>
-  </si>
-  <si>
     <t>Cedar Heights</t>
   </si>
   <si>
     <t>404 Cedar St, NSW 4444</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12506</t>
-  </si>
-  <si>
     <t>Willow Springs</t>
   </si>
   <si>
     <t>505 Willow St,  NSW 4251</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12507</t>
-  </si>
-  <si>
     <t>Spruce Point</t>
   </si>
   <si>
     <t>606 Spruce St, NSW 1023</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12508</t>
-  </si>
-  <si>
     <t>Fir Tree Meadows</t>
   </si>
   <si>
     <t>808 Chestnut St, QLD 1245</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12509</t>
-  </si>
-  <si>
     <t>Chestnut Park</t>
   </si>
   <si>
     <t>909 Redwood St, SA 1444</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12510</t>
-  </si>
-  <si>
     <t>Redwood Retreat</t>
   </si>
   <si>
     <t>1010 Poplar St, WA 4125</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12511</t>
-  </si>
-  <si>
     <t>Poplar Grove</t>
   </si>
   <si>
     <t>1111 Sycamore St, SA 1444</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12512</t>
-  </si>
-  <si>
     <t>Sycamore Gardens</t>
   </si>
   <si>
     <t>1212 Dogwood St, SA 1444</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12513</t>
-  </si>
-  <si>
     <t>Dogwood Court</t>
   </si>
   <si>
     <t>1313 Juniper St, VIC 1111</t>
   </si>
   <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12514</t>
-  </si>
-  <si>
     <t>Juniper Hills</t>
   </si>
   <si>
     <t>1314 Juniper St, VIC 1111</t>
-  </si>
-  <si>
-    <t>https://rimh2.domainstatic.com.au/aOy_2RdRAZnxU40AhLcPwMCQlWU=/660x440/filters:format(jpeg):quality(80)/2018702154_1_1_230813_113349-w2000-h12515</t>
   </si>
 </sst>
 </file>
@@ -568,7 +513,7 @@
         <v>15</v>
       </c>
       <c r="E3" s="4" t="s">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="F3" s="2">
         <v>11000.0</v>
@@ -588,16 +533,16 @@
         <v>3.0</v>
       </c>
       <c r="B4" s="2" t="s">
+        <v>16</v>
+      </c>
+      <c r="C4" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="C4" s="2" t="s">
+      <c r="D4" s="2" t="s">
         <v>18</v>
       </c>
-      <c r="D4" s="2" t="s">
-        <v>19</v>
-      </c>
       <c r="E4" s="4" t="s">
-        <v>20</v>
+        <v>12</v>
       </c>
       <c r="F4" s="2">
         <v>15000.0</v>
@@ -617,16 +562,16 @@
         <v>4.0</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="C5" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D5" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="C5" s="2" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" s="2" t="s">
-        <v>23</v>
-      </c>
       <c r="E5" s="4" t="s">
-        <v>24</v>
+        <v>12</v>
       </c>
       <c r="F5" s="2">
         <v>11000.0</v>
@@ -646,16 +591,16 @@
         <v>5.0</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="D6" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E6" s="4" t="s">
-        <v>28</v>
+        <v>12</v>
       </c>
       <c r="F6" s="2">
         <v>15246.0</v>
@@ -675,16 +620,16 @@
         <v>6.0</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="C7" s="2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="D7" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="E7" s="4" t="s">
-        <v>32</v>
+        <v>12</v>
       </c>
       <c r="F7" s="2">
         <v>41222.0</v>
@@ -704,16 +649,16 @@
         <v>7.0</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C8" s="2" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="D8" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E8" s="4" t="s">
-        <v>35</v>
+        <v>12</v>
       </c>
       <c r="F8" s="2">
         <v>41222.0</v>
@@ -733,16 +678,16 @@
         <v>8.0</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>36</v>
+        <v>30</v>
       </c>
       <c r="C9" s="2" t="s">
-        <v>37</v>
+        <v>31</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E9" s="4" t="s">
-        <v>38</v>
+        <v>12</v>
       </c>
       <c r="F9" s="2">
         <v>12000.0</v>
@@ -762,16 +707,16 @@
         <v>9.0</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>40</v>
+        <v>33</v>
       </c>
       <c r="D10" s="2" t="s">
         <v>11</v>
       </c>
       <c r="E10" s="4" t="s">
-        <v>41</v>
+        <v>12</v>
       </c>
       <c r="F10" s="2">
         <v>12000.0</v>
@@ -791,16 +736,16 @@
         <v>10.0</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="C11" s="2" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="E11" s="4" t="s">
-        <v>44</v>
+        <v>12</v>
       </c>
       <c r="F11" s="2">
         <v>12000.0</v>
@@ -820,16 +765,16 @@
         <v>11.0</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>45</v>
+        <v>36</v>
       </c>
       <c r="C12" s="2" t="s">
-        <v>46</v>
+        <v>37</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E12" s="4" t="s">
-        <v>47</v>
+        <v>12</v>
       </c>
       <c r="F12" s="2">
         <v>12000.0</v>
@@ -849,16 +794,16 @@
         <v>12.0</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>48</v>
+        <v>38</v>
       </c>
       <c r="C13" s="2" t="s">
-        <v>49</v>
+        <v>39</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E13" s="4" t="s">
-        <v>50</v>
+        <v>12</v>
       </c>
       <c r="F13" s="2">
         <v>12000.0</v>
@@ -878,16 +823,16 @@
         <v>13.0</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>51</v>
+        <v>40</v>
       </c>
       <c r="C14" s="2" t="s">
-        <v>52</v>
+        <v>41</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E14" s="4" t="s">
-        <v>53</v>
+        <v>12</v>
       </c>
       <c r="F14" s="2">
         <v>12000.0</v>
@@ -907,16 +852,16 @@
         <v>14.0</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>54</v>
+        <v>42</v>
       </c>
       <c r="C15" s="2" t="s">
-        <v>55</v>
+        <v>43</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E15" s="4" t="s">
-        <v>56</v>
+        <v>12</v>
       </c>
       <c r="F15" s="2">
         <v>12000.0</v>
@@ -936,16 +881,16 @@
         <v>15.0</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>57</v>
+        <v>44</v>
       </c>
       <c r="C16" s="2" t="s">
-        <v>58</v>
+        <v>45</v>
       </c>
       <c r="D16" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E16" s="4" t="s">
-        <v>59</v>
+        <v>12</v>
       </c>
       <c r="F16" s="2">
         <v>12000.0</v>
@@ -965,16 +910,16 @@
         <v>16.0</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>60</v>
+        <v>46</v>
       </c>
       <c r="C17" s="2" t="s">
-        <v>61</v>
+        <v>47</v>
       </c>
       <c r="D17" s="2" t="s">
         <v>15</v>
       </c>
       <c r="E17" s="4" t="s">
-        <v>62</v>
+        <v>12</v>
       </c>
       <c r="F17" s="2">
         <v>12000.0</v>
